--- a/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.6066374622856463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30.98436264758539</v>
+        <v>30.9843626475854</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.041920522576855</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.417583577023424</v>
+        <v>-1.512798989745198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.020904596160434</v>
+        <v>-3.005997844375651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.65090402942992</v>
+        <v>14.01055268564138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.302853762315451</v>
+        <v>2.396749978545891</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4652209603577396</v>
+        <v>0.4669373139009302</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>20.34613676940142</v>
+        <v>22.35734769482035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.218920143633316</v>
+        <v>0.9658094056782566</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8523204892274094</v>
+        <v>-0.6279339362823873</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>22.66309527652692</v>
+        <v>22.11249282039179</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.6614748799375</v>
+        <v>3.746037679823857</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.200644955916803</v>
+        <v>1.199643579566483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50.36311604582552</v>
+        <v>48.00652692891558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.481862583501078</v>
+        <v>9.460100400873351</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.384949171856</v>
+        <v>3.903791594479676</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>45.87946620511228</v>
+        <v>45.77107244987083</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.850945917514217</v>
+        <v>5.843455049938153</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.795205304816333</v>
+        <v>1.806181485744644</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>42.57054671783</v>
+        <v>42.62878909564815</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5038395900476962</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25.733901291605</v>
+        <v>25.73390129160501</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -788,17 +788,17 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>6.090477867527876</v>
+        <v>3.449552937883493</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.2236327337170695</v>
+        <v>0.0426971217335301</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="n">
-        <v>16.68189409521432</v>
+        <v>14.75987328732796</v>
       </c>
     </row>
     <row r="9">
@@ -836,7 +836,7 @@
         <v>0.8008820933748328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22.33269570645993</v>
+        <v>22.33269570645995</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.7780820355583447</v>
@@ -845,7 +845,7 @@
         <v>-0.6528178211707684</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>13.78968762345082</v>
+        <v>13.78968762345081</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.3037716044528957</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.67867830211782</v>
+        <v>13.96559710748418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.66430027995454</v>
+        <v>-2.689796082808598</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.602217814564635</v>
+        <v>-2.592755015134517</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.745000001903557</v>
+        <v>9.163309452705095</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.32364014622614</v>
+        <v>-1.438201342578426</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9692316956554829</v>
+        <v>-1.085386357643803</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.28300076817772</v>
+        <v>12.48445710052408</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.505226956698991</v>
+        <v>1.637598810493062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.611929924570248</v>
+        <v>2.462293909619423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33.57775426382624</v>
+        <v>36.11251612552142</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5164980433247913</v>
+        <v>0.5653693942127469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8690567260721258</v>
+        <v>0.8719668634923931</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.24663554328664</v>
+        <v>19.18578053758595</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5272210706472963</v>
+        <v>0.4617048286903067</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.034828659352854</v>
+        <v>1.231519823921545</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>23.19006738078909</v>
+        <v>22.79890843511978</v>
       </c>
     </row>
     <row r="13">
@@ -956,7 +956,7 @@
         <v>-0.4743446570839686</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>10.01973971131798</v>
+        <v>10.01973971131797</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3989050512332221</v>
@@ -981,16 +981,16 @@
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>2.336259333785983</v>
+        <v>2.909653469251266</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8781920434907106</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7.175139570417967</v>
+        <v>7.358971101630631</v>
       </c>
     </row>
     <row r="15">
@@ -1006,16 +1006,16 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>35.76186005790791</v>
+        <v>48.12182901034521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.444689404740432</v>
+        <v>3.892521385923344</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.693200737307629</v>
+        <v>5.937802052865878</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>93.48091607357441</v>
+        <v>74.18624022222149</v>
       </c>
     </row>
     <row r="16">
@@ -1069,25 +1069,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.63413125770025</v>
+        <v>18.01905620317734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.890950425472926</v>
+        <v>-1.540381300210971</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.004977633650075</v>
+        <v>-1.983452715042356</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>23.84953486322312</v>
+        <v>23.35156361545371</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9666911415156447</v>
+        <v>-0.988195862238918</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7887856311863912</v>
+        <v>-0.7928928068755938</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>24.45657102887536</v>
+        <v>23.91213093284174</v>
       </c>
     </row>
     <row r="18">
@@ -1099,28 +1099,28 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>2.842270594058941</v>
+        <v>2.816620395336686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40.02514125813733</v>
+        <v>42.6834677449436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.124109634923139</v>
+        <v>2.60784120142273</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.367354921604926</v>
+        <v>1.710131953218141</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>43.82947853231754</v>
+        <v>43.27590366352689</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.132976444930304</v>
+        <v>1.129351578222732</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.236466074621078</v>
+        <v>1.270394581110188</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>38.91674010461289</v>
+        <v>39.35780781345339</v>
       </c>
     </row>
     <row r="19">
@@ -1173,12 +1173,12 @@
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>8.65206576379857</v>
+        <v>9.762537752978718</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>16.46745610776937</v>
+        <v>15.86960395992998</v>
       </c>
     </row>
     <row r="21">
@@ -1245,31 +1245,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.646876379579218</v>
+        <v>-2.118141451881521</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.65763553108805</v>
+        <v>-2.518385557547357</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.34835756191582</v>
+        <v>12.78783147922178</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3770295561342183</v>
+        <v>0.6290791733724634</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3444859514792178</v>
+        <v>0.3456361410169172</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.2664396284558</v>
+        <v>12.23466134543049</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1655013578304855</v>
+        <v>-0.1154863595433701</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4707188456566745</v>
+        <v>-0.4657308112607774</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.80353318308061</v>
+        <v>14.42970384419765</v>
       </c>
     </row>
     <row r="24">
@@ -1286,25 +1286,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37.80352888045654</v>
+        <v>37.92055011512591</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.846466253260802</v>
+        <v>3.639279918070824</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.42126817788032</v>
+        <v>3.044909876900667</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.34326381236939</v>
+        <v>23.65582146134477</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.680503076334292</v>
+        <v>1.705972095838597</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.318578620712058</v>
+        <v>1.300383333976449</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>27.79989474202524</v>
+        <v>27.26922837038628</v>
       </c>
     </row>
     <row r="25">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.317108981385244</v>
+        <v>-5.614555482764044</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.438311850192283</v>
+        <v>-5.086228298890163</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.838298424827117</v>
+        <v>1.686656118978983</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.724176996789187</v>
+        <v>-4.923382521161919</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.886831509109665</v>
+        <v>-4.947455465553254</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.4806652246975</v>
+        <v>12.48279871428927</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.855043448599253</v>
+        <v>-3.721837733042255</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.507855106522324</v>
+        <v>-3.412828760615682</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.51608302886481</v>
+        <v>10.14377829308942</v>
       </c>
     </row>
     <row r="30">
@@ -1464,13 +1464,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.440932882736938</v>
+        <v>3.674986805319307</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.068429685480695</v>
+        <v>4.923838983732589</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24.2399411892312</v>
+        <v>24.35766708084334</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>30.96466956243825</v>
+        <v>32.39420372262413</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.266871702197038</v>
+        <v>1.167962166035925</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.710886538629629</v>
+        <v>1.959027893373594</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>24.77961611298165</v>
+        <v>24.73780599503313</v>
       </c>
     </row>
     <row r="31">
@@ -1514,7 +1514,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12.94746009066874</v>
+        <v>12.94746009066875</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.5572590219557444</v>
@@ -1523,7 +1523,7 @@
         <v>-0.2811671907406025</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>7.388256796848399</v>
+        <v>7.3882567968484</v>
       </c>
     </row>
     <row r="32">
@@ -1534,25 +1534,21 @@
         </is>
       </c>
       <c r="C32" s="6" t="inlineStr"/>
-      <c r="D32" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.2812463663980596</v>
+        <v>-0.3349121470806901</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>2.13108143962427</v>
-      </c>
-      <c r="I32" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>2.552419801007303</v>
+      </c>
+      <c r="I32" s="6" t="inlineStr"/>
       <c r="J32" s="6" t="n">
-        <v>-0.9188708239749576</v>
+        <v>-0.8753521053158737</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.634834783579976</v>
+        <v>2.015467843771221</v>
       </c>
     </row>
     <row r="33">
@@ -1565,19 +1561,17 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>17.99582001572711</v>
+        <v>21.59052973379303</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
-      <c r="I33" s="6" t="n">
-        <v>3.354601236518039</v>
-      </c>
+      <c r="I33" s="6" t="inlineStr"/>
       <c r="J33" s="6" t="n">
-        <v>2.33991974966918</v>
+        <v>2.622726742643846</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>26.25880219075815</v>
+        <v>25.21189215041559</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1592,7 @@
         <v>1.772732039393515</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21.59682986429403</v>
+        <v>21.59682986429404</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-1.277633380662561</v>
@@ -1607,7 +1601,7 @@
         <v>-0.5442101512000949</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>23.66910275757824</v>
+        <v>23.66910275757825</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.1647843746671023</v>
@@ -1630,28 +1624,28 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.4954279088163171</v>
+        <v>0.5028815815266316</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14.67134151946111</v>
+        <v>14.17092248168422</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.253696452124035</v>
+        <v>-4.615937463750361</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.574047177993149</v>
+        <v>-2.737542629457984</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>16.85299527532721</v>
+        <v>17.46605796995675</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.514778534577732</v>
+        <v>-1.558463361404331</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9593292165185101</v>
+        <v>-0.8790021684856196</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>17.6826740324756</v>
+        <v>17.86056265368299</v>
       </c>
     </row>
     <row r="36">
@@ -1662,31 +1656,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.889379905414778</v>
+        <v>3.336095157743722</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.73185017048003</v>
+        <v>4.943132326950876</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>30.14490358183176</v>
+        <v>30.5143745312174</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.758158694911823</v>
+        <v>1.519194362507855</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>30.98711359018762</v>
+        <v>32.07342835554815</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.7982066998707247</v>
+        <v>0.771416890035004</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.12958458508041</v>
+        <v>2.232297037634983</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>28.56703196200556</v>
+        <v>28.79248204539084</v>
       </c>
     </row>
     <row r="37">
@@ -1718,7 +1712,7 @@
         <v>-0.4259517318793564</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>18.52573916415976</v>
+        <v>18.52573916415977</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2463075526582107</v>
@@ -1743,12 +1737,14 @@
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>4.504007740389539</v>
+        <v>4.118483071757695</v>
       </c>
       <c r="I38" s="6" t="inlineStr"/>
-      <c r="J38" s="6" t="inlineStr"/>
+      <c r="J38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="K38" s="6" t="n">
-        <v>9.005784508428714</v>
+        <v>8.662199323614777</v>
       </c>
     </row>
     <row r="39">
@@ -1804,7 +1800,7 @@
         <v>0.4447153515034692</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>15.77167396144922</v>
+        <v>15.77167396144923</v>
       </c>
     </row>
     <row r="41">
@@ -1815,31 +1811,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0</v>
+        <v>0.03375338304398194</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2371271908276588</v>
+        <v>-0.2891469947764905</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.44096328142954</v>
+        <v>3.791796263165119</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.2179764685607013</v>
+        <v>0.2358354446841531</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.2200812475550938</v>
+        <v>-0.2244302497428329</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.97410142127664</v>
+        <v>11.86615885640285</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.3368879366177153</v>
+        <v>0.3719823741722931</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.07061918920373919</v>
+        <v>-0.1231421974693831</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.58142977493466</v>
+        <v>10.32703150000277</v>
       </c>
     </row>
     <row r="42">
@@ -1850,31 +1846,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.05164395261015</v>
+        <v>2.833504763220428</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.180284902252544</v>
+        <v>1.925835951334723</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.35165666713183</v>
+        <v>20.70070004732719</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.70611362364443</v>
+        <v>2.523361452774632</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.653393070563534</v>
+        <v>1.617527971063278</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>27.89904627663797</v>
+        <v>28.65141417301669</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.176924296109394</v>
+        <v>2.186237832583061</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.326965067153672</v>
+        <v>1.227907106308678</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>23.32815306295674</v>
+        <v>22.76254675809656</v>
       </c>
     </row>
     <row r="43">
@@ -1891,7 +1887,7 @@
         <v>1.742179248779378</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>46.92074357006176</v>
+        <v>46.92074357006174</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>5.103907225379634</v>
@@ -1900,7 +1896,7 @@
         <v>2.111004488881784</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>85.50693799394745</v>
+        <v>85.50693799394743</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>4.812298503555778</v>
@@ -1909,7 +1905,7 @@
         <v>1.946205580217806</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>69.02149828958379</v>
+        <v>69.0214982895838</v>
       </c>
     </row>
     <row r="44">
@@ -1926,13 +1922,13 @@
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>0.1172348706236803</v>
+        <v>0.1055069769316367</v>
       </c>
       <c r="J44" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>16.45915872098666</v>
+        <v>17.83224324093543</v>
       </c>
     </row>
     <row r="45">
@@ -1970,7 +1966,7 @@
         <v>-0.009514148768638778</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.670677648907149</v>
+        <v>2.67067764890715</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.5519688021711329</v>
@@ -1999,31 +1995,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.053333239773726</v>
+        <v>-2.041962176030967</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.502846459907</v>
+        <v>-1.52575741717936</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5698416033039549</v>
+        <v>0.5094392014064628</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.775997227434082</v>
+        <v>-1.840121139867903</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.078159426042172</v>
+        <v>-0.7628708661594843</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.737183406551624</v>
+        <v>4.965696642973008</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.41379022787875</v>
+        <v>-1.534189528927301</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.734199651519965</v>
+        <v>-0.7357409945258735</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.636255647251255</v>
+        <v>3.690579426845427</v>
       </c>
     </row>
     <row r="48">
@@ -2034,31 +2030,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.3884346341523154</v>
+        <v>0.381926898913784</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.157155810282102</v>
+        <v>1.169717046801054</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.515764010144331</v>
+        <v>5.84191690534753</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.3501979281612691</v>
+        <v>0.340707579558741</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.882448820572954</v>
+        <v>2.154749246226466</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.40363080878269</v>
+        <v>10.4630916415419</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.1593398551633494</v>
+        <v>0.1526244700618341</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.212589569701419</v>
+        <v>1.193713596155281</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.693769224302502</v>
+        <v>7.732504809911074</v>
       </c>
     </row>
     <row r="49">
@@ -2075,7 +2071,7 @@
         <v>-0.01094072743418924</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>3.071126690554677</v>
+        <v>3.071126690554678</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.5936183232114156</v>
@@ -2106,23 +2102,23 @@
       <c r="C50" s="6" t="inlineStr"/>
       <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="n">
-        <v>-0.1661176963233884</v>
+        <v>-0.2283620449835756</v>
       </c>
       <c r="F50" s="6" t="inlineStr"/>
       <c r="G50" s="6" t="n">
-        <v>-0.70120128038103</v>
+        <v>-0.7367274733434639</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>2.071747801126627</v>
+        <v>2.156010587069312</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.9320894310742857</v>
+        <v>-0.9344246162712052</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5666520879080139</v>
+        <v>-0.5504458965586614</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>2.141945207605155</v>
+        <v>2.100891495842848</v>
       </c>
     </row>
     <row r="51">
@@ -2135,23 +2131,23 @@
       <c r="C51" s="6" t="inlineStr"/>
       <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="6" t="n">
-        <v>20.54220134265581</v>
+        <v>20.90172848563038</v>
       </c>
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="n">
-        <v>5.08088386769338</v>
+        <v>6.861385043908005</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>28.93128497709742</v>
+        <v>32.93286301604405</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8472336003713672</v>
+        <v>0.7734552510443963</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>3.035580159124847</v>
+        <v>2.95385863622508</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>19.38009476282085</v>
+        <v>16.28618197331998</v>
       </c>
     </row>
     <row r="52">
@@ -2190,7 +2186,7 @@
         <v>0.2655326407610934</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>15.33985409794125</v>
+        <v>15.33985409794124</v>
       </c>
     </row>
     <row r="53">
@@ -2201,31 +2197,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.2940955000998414</v>
+        <v>-0.3957363565955724</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.2403341523665647</v>
+        <v>-0.2502145144368265</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>11.79013210994644</v>
+        <v>11.49595392828495</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.1597510481069401</v>
+        <v>-0.1919303084722246</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.3941683617170077</v>
+        <v>-0.4146097741652835</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>13.77970902552813</v>
+        <v>13.7763144694852</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1334391123500884</v>
+        <v>-0.1099827042981636</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.1415149070217842</v>
+        <v>-0.1396332263990549</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>13.67141861821443</v>
+        <v>13.67130618814499</v>
       </c>
     </row>
     <row r="54">
@@ -2236,31 +2232,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8140456167573603</v>
+        <v>0.8029532358798527</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.9295234129445801</v>
+        <v>0.9381404531718233</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>17.9616026880671</v>
+        <v>17.75629591237051</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.028319489550226</v>
+        <v>0.9943772076390809</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7816628469701082</v>
+        <v>0.8132942565230182</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>17.94547116453796</v>
+        <v>17.94573305447521</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.6868398095180601</v>
+        <v>0.711766793572557</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.6727667478766217</v>
+        <v>0.6409710855633979</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>17.09972031540265</v>
+        <v>17.32113989962305</v>
       </c>
     </row>
     <row r="55">
@@ -2295,7 +2291,7 @@
         <v>0.3885603826697154</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>22.4471822421125</v>
+        <v>22.44718224211249</v>
       </c>
     </row>
     <row r="56">
@@ -2306,31 +2302,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4034350377622306</v>
+        <v>-0.4749156160489939</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3084300474835581</v>
+        <v>-0.3516270496570418</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>12.57692759001911</v>
+        <v>12.21774238318888</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.187099478723643</v>
+        <v>-0.2220925025165404</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3865845494316672</v>
+        <v>-0.4030398548717902</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>12.35474134591449</v>
+        <v>11.90322831610531</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1891891788488116</v>
+        <v>-0.1479487047903801</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1852684808076828</v>
+        <v>-0.1852833884648137</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>14.50472279324404</v>
+        <v>14.59020876968003</v>
       </c>
     </row>
     <row r="57">
@@ -2341,31 +2337,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.456846448427073</v>
+        <v>2.483456835320843</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>2.782569078111675</v>
+        <v>3.212724658143535</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>58.24348485576279</v>
+        <v>59.51754765288536</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>2.247898512278176</v>
+        <v>2.075988216556229</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>1.67045604994945</v>
+        <v>1.525190611865818</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>37.00596365923548</v>
+        <v>38.81488260345774</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>1.443669397988397</v>
+        <v>1.454653466230185</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>1.427745357234044</v>
+        <v>1.317754478594245</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>34.72941441598212</v>
+        <v>34.19912208938256</v>
       </c>
     </row>
     <row r="58">
